--- a/test_result_data/hasil_uji_Rata-Rata Decision Tree.xlsx
+++ b/test_result_data/hasil_uji_Rata-Rata Decision Tree.xlsx
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3696785670469881</v>
+        <v>0.4843434343434344</v>
       </c>
     </row>
     <row r="3">
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3306666666666667</v>
+        <v>0.3562222222222222</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3220633756924079</v>
+        <v>0.402005810157984</v>
       </c>
     </row>
     <row r="5">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.7766666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/test_result_data/hasil_uji_Rata-Rata Decision Tree.xlsx
+++ b/test_result_data/hasil_uji_Rata-Rata Decision Tree.xlsx
@@ -442,11 +442,11 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Presisi</t>
+          <t>Precision</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4843434343434344</v>
+        <v>0.8214772700318491</v>
       </c>
     </row>
     <row r="3">
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3562222222222222</v>
+        <v>0.8385536248397664</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.402005810157984</v>
+        <v>0.8237670091627723</v>
       </c>
     </row>
     <row r="5">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7766666666666666</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/test_result_data/hasil_uji_Rata-Rata Decision Tree.xlsx
+++ b/test_result_data/hasil_uji_Rata-Rata Decision Tree.xlsx
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8214772700318491</v>
+        <v>0.8149648488157805</v>
       </c>
     </row>
     <row r="3">
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8385536248397664</v>
+        <v>0.8609345772207189</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8237670091627723</v>
+        <v>0.8308710954836288</v>
       </c>
     </row>
     <row r="5">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>
